--- a/Test/MC_Ssf/T1/Sensors_data_1000006.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000006.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.962633483029583</v>
+        <v>0.7037831026243033</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001244795949269954</v>
+        <v>0.009867914482115192</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004582336062050348</v>
+        <v>0.2449352183683406</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9771786456024016</v>
+        <v>0.9170146572164289</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00131508935344936</v>
+        <v>0.00478206240022744</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03578465526200919</v>
+        <v>0.04003692137838538</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1333091314714283</v>
+        <v>-1.074590179759895</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02307649236926056</v>
+        <v>0.04224290012594772</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5266315504673498</v>
+        <v>0.05153864228469759</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6366960790005813</v>
+        <v>0.7971721118470263</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01310494734406524</v>
+        <v>0.007316322892526467</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2863415953612706</v>
+        <v>0.1929692935373512</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
